--- a/throughput/show-12.xlsx
+++ b/throughput/show-12.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\line plot draw\Draw-Python-plot\throughput\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67FE49A-3828-4C5E-9A33-26EC9930CFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>RC</t>
   </si>
@@ -26,12 +32,16 @@
   <si>
     <t>ERD</t>
   </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +90,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -118,7 +146,9 @@
           <c:y val="0.85633777491766616"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -133,6 +163,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -273,6 +304,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35E9-4D0E-8CB1-905524E3D595}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -414,6 +451,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35E9-4D0E-8CB1-905524E3D595}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -555,8 +598,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35E9-4D0E-8CB1-905524E3D595}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="81328384"/>
         <c:axId val="85929984"/>
       </c:lineChart>
@@ -565,15 +623,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85929984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="85929984"/>
@@ -582,6 +643,7 @@
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -614,9 +676,11 @@
               <c:y val="0.16467911288185638"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="81328384"/>
         <c:crosses val="autoZero"/>
@@ -635,8 +699,11 @@
           <c:h val="0.20375107648483931"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -663,7 +730,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -682,9 +755,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -722,7 +795,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -756,6 +829,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -790,9 +864,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -965,20 +1040,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>8</v>
       </c>
@@ -1034,7 +1109,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1227,7 @@
         <v>78.34</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1219,25 +1294,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6.6</v>
+      </c>
+      <c r="D2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7.06</v>
+      </c>
+      <c r="D3">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7.59</v>
+      </c>
+      <c r="D4">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8.66</v>
+      </c>
+      <c r="D5">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>11.08</v>
+      </c>
+      <c r="D6">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>14.26</v>
+      </c>
+      <c r="D7">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>512</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>24.92</v>
+      </c>
+      <c r="D8">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>39.67</v>
+      </c>
+      <c r="D9">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2048</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>83.98</v>
+      </c>
+      <c r="D10">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4096</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>92.56</v>
+      </c>
+      <c r="D11">
+        <v>95.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8192</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>96.74</v>
+      </c>
+      <c r="D12">
+        <v>98.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16384</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>96.27</v>
+      </c>
+      <c r="D13">
+        <v>97.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32768</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>95.87</v>
+      </c>
+      <c r="D14">
+        <v>97.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65536</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>92.9</v>
+      </c>
+      <c r="D15">
+        <v>94.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>131072</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>89.72</v>
+      </c>
+      <c r="D16">
+        <v>90.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>262144</v>
+      </c>
+      <c r="B17">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>89.32</v>
+      </c>
+      <c r="D17">
+        <v>89.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>524288</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>78.48</v>
+      </c>
+      <c r="D18">
+        <v>79.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1048576</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>78.34</v>
+      </c>
+      <c r="D19">
+        <v>79.06</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
